--- a/mip_eigenvalues.xlsx
+++ b/mip_eigenvalues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="1150">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -92,19 +92,19 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.531756955436454+0i</t>
+    <t xml:space="preserve">0.531756955436456+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.520108719796559+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520181371315026+0i</t>
+    <t xml:space="preserve">0.520181371315027+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.517579196827792+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52437725441785+0i</t>
+    <t xml:space="preserve">0.524377254417848+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.552713100660559+0i</t>
@@ -116,49 +116,49 @@
     <t xml:space="preserve">0.561428600853707+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.563407247182273+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.569850458509695+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558444432318922+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545670632527997+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53872766172923+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532321832438432+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5235579790271+0i</t>
+    <t xml:space="preserve">0.563407247182272+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.569850458509693+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558444432318923+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545670632527998+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538727661729229+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532321832438434+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.523557979027101+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.50514906541179+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51149820242782+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520060472226739+0i</t>
+    <t xml:space="preserve">0.511498202427821+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520060472226738+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.519316808463313+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521126211814467+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521163108696018+0i</t>
+    <t xml:space="preserve">0.521126211814465+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521163108696017+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.506955399377814+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51086306944177+0i</t>
+    <t xml:space="preserve">0.510863069441772+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.516103212687134+0i</t>
@@ -167,85 +167,85 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362168170133065+0i</t>
+    <t xml:space="preserve">0.362168170133067+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.308043920787275+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.281721487231113+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321127205726984+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37701334401796+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318913299900695+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311789037906963+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310435883771812+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376253357982123+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314859524156476+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33079109300625+0i</t>
+    <t xml:space="preserve">0.281721487231112+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321127205726986+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377013344017961+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318913299900693+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311789037906964+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310435883771813+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376253357982122+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314859524156475+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330791093006249+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.340204259167069+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.294746057596346+0i</t>
+    <t xml:space="preserve">0.294746057596345+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.307417593530913+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296026545401078+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.302115165930042+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.293566762989406+0i</t>
+    <t xml:space="preserve">0.296026545401077+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30211516593004+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.293566762989407+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.311125204878575+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315015984908021+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330098847563734+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321990665356957+0i</t>
+    <t xml:space="preserve">0.31501598490802+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330098847563735+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321990665356959+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.30583244881681+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317099736621014+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333887187130793+0i</t>
+    <t xml:space="preserve">0.317099736621015+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333887187130794+0i</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253122642536559+0.066906187074743i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258740640839189+0i</t>
+    <t xml:space="preserve">0.25312264253656+0.066906187074743i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.258740640839188+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.258958246259998+0i</t>
@@ -257,103 +257,103 @@
     <t xml:space="preserve">0.254746103091771+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29228167064072+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.289525068143161+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305472772394719+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329265636804208+0i</t>
+    <t xml:space="preserve">0.292281670640719+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.289525068143162+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305472772394717+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32926563680421+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.302778751139186+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306604581746385+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.294517449485676+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.280488321234174+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.284900473457832+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.277188962044772+0i</t>
+    <t xml:space="preserve">0.306604581746384+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.294517449485675+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.280488321234172+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28490047345783+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.277188962044774+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.274577347111039+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271761230716065+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.291214870213591+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305631633480502+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31217929618255+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30385420879637+0i</t>
+    <t xml:space="preserve">0.271761230716066+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.291214870213592+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3056316334805+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312179296182549+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303854208796371+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.282673938073954+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.302210764576039+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300681449556713+0i</t>
+    <t xml:space="preserve">0.302210764576038+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300681449556714+0i</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253122642536559-0.066906187074743i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248271171316049+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24018553133804+0.020195741279451i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243893199066684+0i</t>
+    <t xml:space="preserve">0.25312264253656-0.066906187074743i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248271171316051+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240185531338041+0.02019574127945i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243893199066685+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.241350679065875+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240700745921787+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257221252970708+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254732737407772+0i</t>
+    <t xml:space="preserve">0.240700745921788+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257221252970709+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25473273740777+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.271980271862683+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.278238698441745+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272621011123633+0i</t>
+    <t xml:space="preserve">0.278238698441744+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.272621011123632+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.26987466196269+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268498921867095+0i</t>
+    <t xml:space="preserve">0.268498921867098+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.268000857685758+0i</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">0.253159884457601+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257737942429756+0i</t>
+    <t xml:space="preserve">0.257737942429754+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.257286935213178+0i</t>
@@ -374,46 +374,46 @@
     <t xml:space="preserve">0.259031647964731+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255422279179258+0i</t>
+    <t xml:space="preserve">0.255422279179257+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.286893147628741+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244422203484348+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254487805168539+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272128988833703+0i</t>
+    <t xml:space="preserve">0.244422203484349+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25448780516854+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.272128988833702+0i</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240607045580061+0i</t>
+    <t xml:space="preserve">0.24060704558006+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.236568497817909+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24018553133804-0.020195741279451i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21453267789531+0i</t>
+    <t xml:space="preserve">0.240185531338041-0.02019574127945i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214532677895309+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.221190171198803+0.014926620608376i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225749462756577+0.020147532438841i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.224766929068242+0.048362947888895i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239260736425122+0.046255260468983i</t>
+    <t xml:space="preserve">0.225749462756578+0.020147532438841i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.224766929068242+0.048362947888894i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239260736425124+0.046255260468983i</t>
   </si>
   <si>
     <t xml:space="preserve">0.247946986490271+0.052439534693062i</t>
@@ -428,25 +428,25 @@
     <t xml:space="preserve">0.224253816237795+0.055152974889999i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22024052166617+0.059028622274858i</t>
+    <t xml:space="preserve">0.220240521666169+0.059028622274858i</t>
   </si>
   <si>
     <t xml:space="preserve">0.220291752650972+0.070403643797916i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249502817626301+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242914411795306+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231617092199082+0.033365303695007i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252780399574089+0.041867102219425i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246373028509+0.050431805200253i</t>
+    <t xml:space="preserve">0.249502817626302+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242914411795307+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231617092199081+0.033365303695007i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252780399574088+0.041867102219425i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246373028509+0.050431805200254i</t>
   </si>
   <si>
     <t xml:space="preserve">0.246719217801892+0.042272305512388i</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">0.236491721225417+0.037883968966909i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229339818723769+0i</t>
+    <t xml:space="preserve">0.22933981872377+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.223102914996712+0.029261701103494i</t>
@@ -470,10 +470,10 @@
     <t xml:space="preserve">0.233444759742779+0.005747091140823i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222204118880714+0.061023826777689i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182559881576617+0.052535172083414i</t>
+    <t xml:space="preserve">0.222204118880715+0.061023826777689i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182559881576618+0.052535172083414i</t>
   </si>
   <si>
     <t xml:space="preserve">0.186899317883452+0.038530540464752i</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">0.221190171198803-0.014926620608376i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225749462756577-0.020147532438841i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.224766929068242-0.048362947888895i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239260736425122-0.046255260468983i</t>
+    <t xml:space="preserve">0.225749462756578-0.020147532438841i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.224766929068242-0.048362947888894i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239260736425124-0.046255260468983i</t>
   </si>
   <si>
     <t xml:space="preserve">0.247946986490271-0.052439534693062i</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">0.224253816237795-0.055152974889999i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22024052166617-0.059028622274858i</t>
+    <t xml:space="preserve">0.220240521666169-0.059028622274858i</t>
   </si>
   <si>
     <t xml:space="preserve">0.220291752650972-0.070403643797916i</t>
@@ -512,16 +512,16 @@
     <t xml:space="preserve">0.215167838348567+0.069018580683541i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220580410398383+0.040553156702566i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231617092199082-0.033365303695007i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252780399574089-0.041867102219425i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246373028509-0.050431805200253i</t>
+    <t xml:space="preserve">0.220580410398382+0.040553156702566i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231617092199081-0.033365303695007i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252780399574088-0.041867102219425i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246373028509-0.050431805200254i</t>
   </si>
   <si>
     <t xml:space="preserve">0.246719217801892-0.042272305512388i</t>
@@ -545,10 +545,10 @@
     <t xml:space="preserve">0.233444759742779-0.005747091140823i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222204118880714-0.061023826777689i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182559881576617-0.052535172083414i</t>
+    <t xml:space="preserve">0.222204118880715-0.061023826777689i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182559881576618-0.052535172083414i</t>
   </si>
   <si>
     <t xml:space="preserve">0.186899317883452-0.038530540464752i</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">0.208541548446265+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220237951134473+0.00066982349014i</t>
+    <t xml:space="preserve">0.220237951134473+0.000669823490139i</t>
   </si>
   <si>
     <t xml:space="preserve">0.228399297147783+0i</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">0.218811562378952+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215455444130956+0i</t>
+    <t xml:space="preserve">0.215455444130955+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.215510956102628+0i</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">0.215167838348567-0.069018580683541i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220580410398383-0.040553156702566i</t>
+    <t xml:space="preserve">0.220580410398382-0.040553156702566i</t>
   </si>
   <si>
     <t xml:space="preserve">0.229916133310423+0i</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">0.231686215776164+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228754033159348+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232182609253131+0i</t>
+    <t xml:space="preserve">0.228754033159349+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23218260925313+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.221382935769255-0.034118912307652i</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">0.184088717057831+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171655433818222+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170056245469872+0.004021795931569i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171215123038467+0.001413907853354i</t>
+    <t xml:space="preserve">0.171655433818221+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170056245469873+0.00402179593157i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171215123038466+0.001413907853353i</t>
   </si>
   <si>
     <t xml:space="preserve">0.17350522462056-0.034220523097359i</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">0.181620179393026+0.049500028047877i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198614276504158+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.201257736304934+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220237951134473-0.00066982349014i</t>
+    <t xml:space="preserve">0.198614276504157+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.201257736304933+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220237951134473-0.000669823490139i</t>
   </si>
   <si>
     <t xml:space="preserve">0.208992367356839+0i</t>
@@ -650,31 +650,31 @@
     <t xml:space="preserve">0.207973880745802+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200094594020814+0i</t>
+    <t xml:space="preserve">0.200094594020813+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.196508722504194+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208055131988895+0.007144271900442i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205470980828195+0.004710330076323i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20227202731141+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216195982828498+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21010637108943+0i</t>
+    <t xml:space="preserve">0.208055131988895+0.007144271900441i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205470980828196+0.004710330076323i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202272027311409+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.216195982828499+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210106371089431+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.205269243497351+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205079537493164+0i</t>
+    <t xml:space="preserve">0.205079537493165+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.196732216558927+0i</t>
@@ -683,40 +683,40 @@
     <t xml:space="preserve">0.193758859244471+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192364335374307+0.00227170559525i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194428725338742+0i</t>
+    <t xml:space="preserve">0.192364335374306+0.00227170559525i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194428725338741+0i</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165988048241668+0i</t>
+    <t xml:space="preserve">0.165988048241667+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.162352108303383+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170056245469872-0.004021795931569i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171215123038467-0.001413907853354i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168311882655993+0i</t>
+    <t xml:space="preserve">0.170056245469873-0.00402179593157i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171215123038466-0.001413907853353i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168311882655992+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.181620179393026-0.049500028047877i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179753221181362+0i</t>
+    <t xml:space="preserve">0.179753221181361+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.190913642241572+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199898384051627+0i</t>
+    <t xml:space="preserve">0.199898384051628+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.193887432975285+0i</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">0.188132893899298+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208055131988895-0.007144271900442i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205470980828195-0.004710330076323i</t>
+    <t xml:space="preserve">0.208055131988895-0.007144271900441i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205470980828196-0.004710330076323i</t>
   </si>
   <si>
     <t xml:space="preserve">0.167206571256822+0i</t>
@@ -743,31 +743,31 @@
     <t xml:space="preserve">0.171391256561099+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180344541700036+0i</t>
+    <t xml:space="preserve">0.180344541700035+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.183892901006707+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190070288667302+0i</t>
+    <t xml:space="preserve">0.190070288667303+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.184882529053101+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190084755218173+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192364335374307-0.00227170559525i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188940697641765+0i</t>
+    <t xml:space="preserve">0.190084755218172+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192364335374306-0.00227170559525i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188940697641766+0i</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142687419618449+0.072355187936029i</t>
+    <t xml:space="preserve">0.142687419618448+0.072355187936028i</t>
   </si>
   <si>
     <t xml:space="preserve">0.157289355198886+0i</t>
@@ -776,19 +776,19 @@
     <t xml:space="preserve">0.132230197302239+0.077080256136747i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1599060856797+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160219802736207+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184855776169008+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173152228807559+0.033670436570428i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173643082983583+0.029681583914645i</t>
+    <t xml:space="preserve">0.159906085679701+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160219802736206+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184855776169009+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17315222880756+0.033670436570428i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173643082983582+0.029681583914645i</t>
   </si>
   <si>
     <t xml:space="preserve">0.188287393960091+0.014322580333343i</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">0.179368490003946+0.027338222195156i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174010834832172+0.019551355219752i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187369207615365+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178369812975887+0i</t>
+    <t xml:space="preserve">0.174010834832172+0.019551355219753i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187369207615367+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178369812975888+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.141441443858981+0.011443830705425i</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">0.138030717544974+0.01009776492743i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141454051551796+0.010346099213612i</t>
+    <t xml:space="preserve">0.141454051551795+0.010346099213612i</t>
   </si>
   <si>
     <t xml:space="preserve">0.140266139265981+0.013122927213444i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138248613301416+0.013786437050972i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133878500538597+0.017469830304513i</t>
+    <t xml:space="preserve">0.138248613301415+0.013786437050972i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133878500538596+0.017469830304513i</t>
   </si>
   <si>
     <t xml:space="preserve">0.133597487559128+0.017574240325842i</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142687419618449-0.072355187936029i</t>
+    <t xml:space="preserve">0.142687419618448-0.072355187936028i</t>
   </si>
   <si>
     <t xml:space="preserve">0.152154998758165+0i</t>
@@ -854,16 +854,16 @@
     <t xml:space="preserve">0.150584143152556+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151709743222199+0i</t>
+    <t xml:space="preserve">0.1517097432222+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.17596272717273+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173152228807559-0.033670436570428i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173643082983583-0.029681583914645i</t>
+    <t xml:space="preserve">0.17315222880756-0.033670436570428i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173643082983582-0.029681583914645i</t>
   </si>
   <si>
     <t xml:space="preserve">0.188287393960091-0.014322580333343i</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">0.179368490003946-0.027338222195156i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174010834832172-0.019551355219752i</t>
+    <t xml:space="preserve">0.174010834832172-0.019551355219753i</t>
   </si>
   <si>
     <t xml:space="preserve">0.176466893801758+0i</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">0.138030717544974-0.01009776492743i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141454051551796-0.010346099213612i</t>
+    <t xml:space="preserve">0.141454051551795-0.010346099213612i</t>
   </si>
   <si>
     <t xml:space="preserve">0.140266139265981-0.013122927213444i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138248613301416-0.013786437050972i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133878500538597-0.017469830304513i</t>
+    <t xml:space="preserve">0.138248613301415-0.013786437050972i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133878500538596-0.017469830304513i</t>
   </si>
   <si>
     <t xml:space="preserve">0.133597487559128-0.017574240325842i</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.131689550992149+0.073050265550337i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150951189905715+0i</t>
+    <t xml:space="preserve">0.150951189905716+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.126734872566257+0.080530021167749i</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">0.118560169669885+0.084224649479311i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128368817421088+0.088621120594421i</t>
+    <t xml:space="preserve">0.128368817421088+0.08862112059442i</t>
   </si>
   <si>
     <t xml:space="preserve">0.128547677107856+0.089663409727405i</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">0.104974094616832+0.073724308176004i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102756271910854+0.073832215968484i</t>
+    <t xml:space="preserve">0.102756271910855+0.073832215968484i</t>
   </si>
   <si>
     <t xml:space="preserve">0.111734709938586+0.080251584686285i</t>
@@ -965,40 +965,40 @@
     <t xml:space="preserve">0.118531581383172+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115297148977705+0i</t>
+    <t xml:space="preserve">0.115297148977706+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.11766049417578+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120189587684829+0i</t>
+    <t xml:space="preserve">0.12018958768483+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.123278585489179+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108579698182197+0.026333871885324i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110425566253355+0.014685564942397i</t>
+    <t xml:space="preserve">0.108579698182196+0.026333871885324i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110425566253354+0.014685564942397i</t>
   </si>
   <si>
     <t xml:space="preserve">0.115557175809676+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11407647683362+0.010833011146209i</t>
+    <t xml:space="preserve">0.114076476833621+0.010833011146209i</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133349519223789+0.004859504850176i</t>
+    <t xml:space="preserve">0.133349519223789+0.004859504850175i</t>
   </si>
   <si>
     <t xml:space="preserve">0.131689550992149-0.073050265550337i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145969654295161+0i</t>
+    <t xml:space="preserve">0.14596965429516+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.126734872566257-0.080530021167749i</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">0.118560169669885-0.084224649479311i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128368817421088-0.088621120594421i</t>
+    <t xml:space="preserve">0.128368817421088-0.08862112059442i</t>
   </si>
   <si>
     <t xml:space="preserve">0.128547677107856-0.089663409727405i</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">0.104974094616832-0.073724308176004i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102756271910854-0.073832215968484i</t>
+    <t xml:space="preserve">0.102756271910855-0.073832215968484i</t>
   </si>
   <si>
     <t xml:space="preserve">0.111734709938586-0.080251584686285i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114482848052996+0.077297671255699i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11909367421077+0.074692006784204i</t>
+    <t xml:space="preserve">0.114482848052996+0.0772976712557i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119093674210771+0.074692006784204i</t>
   </si>
   <si>
     <t xml:space="preserve">0.114163815586035+0.022337592232485i</t>
@@ -1049,25 +1049,25 @@
     <t xml:space="preserve">0.11031713926566+0.014563738947397i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106102636248527+0.024159574528082i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108579698182197-0.026333871885324i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110425566253355-0.014685564942397i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106328453033205+0.014572681518121i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11407647683362-0.010833011146209i</t>
+    <t xml:space="preserve">0.106102636248526+0.024159574528082i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108579698182196-0.026333871885324i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110425566253354-0.014685564942397i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106328453033204+0.014572681518121i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114076476833621-0.010833011146209i</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133349519223789-0.004859504850176i</t>
+    <t xml:space="preserve">0.133349519223789-0.004859504850175i</t>
   </si>
   <si>
     <t xml:space="preserve">0.12448114646455+0i</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">0.121017141455341+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.142369880024578+0i</t>
+    <t xml:space="preserve">-0.142369880024579+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.133446827648711+0i</t>
@@ -1091,25 +1091,25 @@
     <t xml:space="preserve">-0.139215519311302+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.140738175093583+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126070172343348+0i</t>
+    <t xml:space="preserve">-0.140738175093582+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126070172343347+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.124167176886637+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123131929032125+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123767933243289+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114482848052996-0.077297671255699i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11909367421077-0.074692006784204i</t>
+    <t xml:space="preserve">0.123131929032126+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12376793324329+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114482848052996-0.0772976712557i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119093674210771-0.074692006784204i</t>
   </si>
   <si>
     <t xml:space="preserve">0.114163815586035-0.022337592232485i</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">0.11031713926566-0.014563738947397i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106102636248527-0.024159574528082i</t>
+    <t xml:space="preserve">0.106102636248526-0.024159574528082i</t>
   </si>
   <si>
     <t xml:space="preserve">0.107713364817331+0i</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">0.104778474298611+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106328453033205-0.014572681518121i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114036182963058+0i</t>
+    <t xml:space="preserve">0.106328453033204-0.014572681518121i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114036182963057+0i</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">0.124169799622534+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.084300695206785+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0283214172310845+0.0914934951299697i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0262708224913967+0.0869917524970349i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0254636862785+0.0855905694464069i</t>
+    <t xml:space="preserve">0.0843006952067847+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0283214172310844+0.0914934951299692i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0262708224913967+0.0869917524970348i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0254636862784999+0.085590569446407i</t>
   </si>
   <si>
     <t xml:space="preserve">0.120536253362964+0i</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">0.12122406081219+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136174456362614+0i</t>
+    <t xml:space="preserve">0.136174456362613+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.115640899023766+0i</t>
@@ -1178,25 +1178,25 @@
     <t xml:space="preserve">-0.112987182971596+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.112861732567218+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.020770363477944+0.0857695331034462i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0143424008856864+0.0888118498143831i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0599092521534193+0.0953507946398409i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0570032705835761+0.0883510748086347i</t>
+    <t xml:space="preserve">-0.112861732567219+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0207703634779439+0.0857695331034462i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0143424008856864+0.0888118498143833i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0599092521534192+0.0953507946398408i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0570032705835761+0.0883510748086348i</t>
   </si>
   <si>
     <t xml:space="preserve">0.103018504978254+0.022152766360165i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104612766322916+0.023327469670843i</t>
+    <t xml:space="preserve">0.104612766322916+0.023327469670842i</t>
   </si>
   <si>
     <t xml:space="preserve">0.107037864515379+0.013044623951594i</t>
@@ -1208,70 +1208,70 @@
     <t xml:space="preserve">0.102059334874101+0.011258780664821i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0558331367785393+0.0847035120451082i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0637587707495827+0.0942175028843033i</t>
+    <t xml:space="preserve">0.0558331367785392+0.0847035120451078i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0637587707495826+0.0942175028843033i</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0439691709501742+0.0640262319288881i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0233278169959115+0.0804347923476668i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0283214172310845-0.0914934951299697i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0262708224913967-0.0869917524970349i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0254636862785-0.0855905694464069i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0285752481265966+0.0899619523127277i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0194786227248046+0.0849573458687836i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0254903058859419+0.0800132158967373i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0248914952651778+0.0791049005048023i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0215807142709307+0.0849894428084345i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0220418270456949+0.0816213046523281i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0198184333618454+0.0786360843196221i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0179476355079769+0.0793252141876798i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.020770363477944-0.0857695331034462i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0143424008856864-0.0888118498143831i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0599092521534193-0.0953507946398409i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0570032705835761-0.0883510748086347i</t>
+    <t xml:space="preserve">0.0439691709501739+0.064026231928888i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0233278169959114+0.0804347923476671i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0283214172310844-0.0914934951299692i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0262708224913967-0.0869917524970348i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0254636862784999-0.085590569446407i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0285752481265967+0.0899619523127277i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0194786227248046+0.0849573458687834i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0254903058859418+0.0800132158967374i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0248914952651779+0.0791049005048023i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0215807142709307+0.0849894428084346i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0220418270456949+0.081621304652328i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0198184333618455+0.0786360843196222i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0179476355079769+0.07932521418768i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0207703634779439-0.0857695331034462i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0143424008856864-0.0888118498143833i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0599092521534192-0.0953507946398408i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0570032705835761-0.0883510748086348i</t>
   </si>
   <si>
     <t xml:space="preserve">0.103018504978254-0.022152766360165i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104612766322916-0.023327469670843i</t>
+    <t xml:space="preserve">0.104612766322916-0.023327469670842i</t>
   </si>
   <si>
     <t xml:space="preserve">0.107037864515379-0.013044623951594i</t>
@@ -1283,58 +1283,58 @@
     <t xml:space="preserve">0.102059334874101-0.011258780664821i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0558331367785393-0.0847035120451082i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0637587707495827-0.0942175028843033i</t>
+    <t xml:space="preserve">0.0558331367785392-0.0847035120451078i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0637587707495826-0.0942175028843033i</t>
   </si>
   <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0439691709501742-0.0640262319288881i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0233278169959115-0.0804347923476668i</t>
+    <t xml:space="preserve">0.0439691709501739-0.064026231928888i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0233278169959114-0.0804347923476671i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0858836772454494+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0847968408005089+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0865772761339431+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0285752481265966-0.0899619523127277i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0194786227248046-0.0849573458687836i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0254903058859419-0.0800132158967373i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0248914952651778-0.0791049005048023i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0215807142709307-0.0849894428084345i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0220418270456949-0.0816213046523281i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0198184333618454-0.0786360843196221i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0179476355079769-0.0793252141876798i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0731288865335998+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0647741487310218+0.0178287160136603i</t>
+    <t xml:space="preserve">0.0847968408005088+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0865772761339422+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0285752481265967-0.0899619523127277i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0194786227248046-0.0849573458687834i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0254903058859418-0.0800132158967374i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0248914952651779-0.0791049005048023i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0215807142709307-0.0849894428084346i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0220418270456949-0.081621304652328i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0198184333618455-0.0786360843196222i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0179476355079769-0.07932521418768i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0731288865335996+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0647741487310219+0.0178287160136603i</t>
   </si>
   <si>
     <t xml:space="preserve">0.103093082117966+0.014609774840795i</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">0.102265625012188+0.019600312624688i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0561526214027283+0.0847042075344838i</t>
+    <t xml:space="preserve">0.0561526214027282+0.0847042075344837i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0564809732195493+0.0828681730711066i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0542161149185366+0.0815448522369086i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056230324988541+0.0851136057416747i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0754426942988949+0.0611194952977383i</t>
+    <t xml:space="preserve">0.0542161149185365+0.0815448522369085i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.056230324988541+0.0851136057416745i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0754426942988946+0.061119495297738i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0989998061249861+0.0116121996843964i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0998315668754239+0.0055332691753644i</t>
+    <t xml:space="preserve">0.0998315668754237+0.0055332691753644i</t>
   </si>
   <si>
     <t xml:space="preserve">18</t>
@@ -1370,25 +1370,25 @@
     <t xml:space="preserve">-0.0705387849078456+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0770823301860194+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0472590010399217+0.0092185253563177i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0473983883355151+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0582379663924669+0.0045587333319617i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.065872988308298+0i</t>
+    <t xml:space="preserve">0.0770823301860191+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0472590010399218+0.0092185253563176i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0473983883355147+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058237966392467+0.0045587333319618i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0658729883082984+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0814223551773616+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0716202310758279+0i</t>
+    <t xml:space="preserve">0.0716202310758281+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.074525141832835+0i</t>
@@ -1397,19 +1397,19 @@
     <t xml:space="preserve">0.0840278691267921+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0623761444596421+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0659151639047533+0i</t>
+    <t xml:space="preserve">0.0623761444596422+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0659151639047534+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0670103168941532+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0626276367411345+0.0205442675331979i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0647741487310218-0.0178287160136603i</t>
+    <t xml:space="preserve">0.0626276367411347+0.020544267533198i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0647741487310219-0.0178287160136603i</t>
   </si>
   <si>
     <t xml:space="preserve">0.103093082117966-0.014609774840795i</t>
@@ -1418,199 +1418,199 @@
     <t xml:space="preserve">0.102265625012188-0.019600312624688i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0561526214027283-0.0847042075344838i</t>
+    <t xml:space="preserve">0.0561526214027282-0.0847042075344837i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0564809732195493-0.0828681730711066i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0542161149185366-0.0815448522369086i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056230324988541-0.0851136057416747i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0754426942988949-0.0611194952977383i</t>
+    <t xml:space="preserve">0.0542161149185365-0.0815448522369085i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.056230324988541-0.0851136057416745i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0754426942988946-0.061119495297738i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0989998061249861-0.0116121996843964i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0998315668754239-0.0055332691753644i</t>
+    <t xml:space="preserve">0.0998315668754237-0.0055332691753644i</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0687726683580555+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0362260984257137+0.0232788469889455i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0472590010399217-0.0092185253563177i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0436485788986809+0.0040542790623448i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0582379663924669-0.0045587333319617i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0547578763205879+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0644277925830894+0.0068952780886437i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0561823214641267+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.054693493438692+0.0183160269388001i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052849856255588+0.0068678952162294i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0490201180421019+0.0139100011337348i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0493334065292839+0.0149391143604048i</t>
+    <t xml:space="preserve">0.0687726683580554+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036226098425714+0.0232788469889455i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0472590010399218-0.0092185253563176i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0436485788986812+0.0040542790623446i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058237966392467-0.0045587333319618i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0547578763205876+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0644277925830894+0.0068952780886436i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0561823214641269+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0546934934386921+0.0183160269388002i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052849856255588+0.0068678952162295i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0490201180421017+0.0139100011337347i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0493334065292838+0.0149391143604048i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0521057348463402+0.0130789675617466i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0626276367411345-0.0205442675331979i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0572017796257624+0.0039429360133347i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0610154216389242+0.0553712680302003i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0570675299194239+0.054633105103142i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0659396636709379+0.05490782904717i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0648067261641531+0.0592567885087191i</t>
+    <t xml:space="preserve">0.0626276367411347-0.020544267533198i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0572017796257623+0.0039429360133349i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.061015421638924+0.0553712680302004i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0570675299194239+0.0546331051031419i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0659396636709381+0.0549078290471701i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.064806726164153+0.0592567885087191i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0801591250700471+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0660240834565027+0.0515670461935483i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0423622432409507+0.0724864783554391i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0775638603890379+0.0075940498960613i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0933158914374034+0i</t>
+    <t xml:space="preserve">0.0660240834565027+0.0515670461935484i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0423622432409506+0.0724864783554393i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0775638603890378+0.0075940498960612i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0933158914374037+0i</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0585195112870442+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0362260984257137-0.0232788469889455i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0422792924628834+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0436485788986809-0.0040542790623448i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0418500284071651+0.0125681226705916i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0468283189775524+0.008621366692576i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0644277925830894-0.0068952780886437i</t>
+    <t xml:space="preserve">0.0585195112870441+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036226098425714-0.0232788469889455i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0422792924628831+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0436485788986812-0.0040542790623446i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0418500284071651+0.0125681226705917i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0468283189775526+0.0086213666925759i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0644277925830894-0.0068952780886436i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0525815593078385+0.0148768007586697i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.054693493438692-0.0183160269388001i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052849856255588-0.0068678952162294i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0490201180421019-0.0139100011337348i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0493334065292839-0.0149391143604048i</t>
+    <t xml:space="preserve">0.0546934934386921-0.0183160269388002i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052849856255588-0.0068678952162295i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0490201180421017-0.0139100011337347i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0493334065292838-0.0149391143604048i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0521057348463402-0.0130789675617466i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0520671615206401+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0572017796257624-0.0039429360133347i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0610154216389242-0.0553712680302003i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0570675299194239-0.054633105103142i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0659396636709379-0.05490782904717i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0648067261641531-0.0592567885087191i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0589819411438456+0.0522936861211113i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0660240834565027-0.0515670461935483i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0423622432409507-0.0724864783554391i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0775638603890379-0.0075940498960613i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0820500130846957+0.0321570806496148i</t>
+    <t xml:space="preserve">-0.0520671615206402+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0572017796257623-0.0039429360133349i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.061015421638924-0.0553712680302004i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0570675299194239-0.0546331051031419i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0659396636709381-0.0549078290471701i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.064806726164153-0.0592567885087191i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0589819411438455+0.0522936861211112i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0660240834565027-0.0515670461935484i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0423622432409506-0.0724864783554393i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0775638603890378-0.0075940498960612i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0820500130846956+0.0321570806496149i</t>
   </si>
   <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0471838626447229+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0422683545567697+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0416892374069591+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0384285265715271+0.0062660836009944i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0418500284071651-0.0125681226705916i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0468283189775524-0.008621366692576i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0539448035101633+0.0098513034172432i</t>
+    <t xml:space="preserve">0.0471838626447228+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0422683545567696+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0416892374069596+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.038428526571527+0.0062660836009945i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0418500284071651-0.0125681226705917i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0468283189775526-0.0086213666925759i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0539448035101632+0.0098513034172432i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0525815593078385-0.0148768007586697i</t>
@@ -1619,118 +1619,118 @@
     <t xml:space="preserve">0.0520343337191281+0.0122146701163784i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0457617404628351+0.0189816283820284i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0447076589883996+0.0130190944063372i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0489998190470446+0.0086581459178379i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0504488643360246+0.0049692343919698i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0366897965398644+0.0077325637784373i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0494015491918301+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.073473343361909+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0755496561750472+0.0148887258879393i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0751201751009176+0.0073382179603787i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0768226771065943+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0589819411438456-0.0522936861211113i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0769225808222149+0.0087698041672956i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0738343412416752+0.0064832071803746i</t>
+    <t xml:space="preserve">0.0457617404628352+0.0189816283820285i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0447076589883997+0.0130190944063373i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0489998190470446+0.0086581459178378i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0504488643360248+0.0049692343919699i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0366897965398644+0.0077325637784372i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0494015491918302+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0734733433619092+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0755496561750473+0.0148887258879393i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0751201751009177+0.007338217960379i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0768226771065942+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0589819411438455-0.0522936861211112i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0769225808222151+0.0087698041672955i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0738343412416753+0.0064832071803746i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0645981983371523+0.0434521367194698i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0820500130846957-0.0321570806496148i</t>
+    <t xml:space="preserve">0.0820500130846956-0.0321570806496149i</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0443220977335014+0.0133076025170838i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0400223642247876+0.0095359221249079i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0411453766100617+0.0038576106263179i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0384285265715271-0.0062660836009944i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0392470208648118+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0412951087954838+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0539448035101633-0.0098513034172432i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0472493263155029+0.0171111568421963i</t>
+    <t xml:space="preserve">0.0443220977335012+0.0133076025170837i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0400223642247877+0.0095359221249078i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0411453766100616+0.0038576106263179i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.038428526571527-0.0062660836009945i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0392470208648119+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0412951087954839+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0539448035101632-0.0098513034172432i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.047249326315503+0.0171111568421963i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0520343337191281-0.0122146701163784i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0457617404628351-0.0189816283820284i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0447076589883996-0.0130190944063372i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0489998190470446-0.0086581459178379i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0504488643360246-0.0049692343919698i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0366897965398644-0.0077325637784373i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0367407304376981+0.0034595206959958i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0705656712415828+0.0096254277558264i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0755496561750472-0.0148887258879393i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0751201751009176-0.0073382179603787i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0734937121248603+0.0070593241233825i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0737160797181853+0.002399146119373i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0769225808222149-0.0087698041672956i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0738343412416752-0.0064832071803746i</t>
+    <t xml:space="preserve">0.0457617404628352-0.0189816283820285i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0447076589883997-0.0130190944063373i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0489998190470446-0.0086581459178378i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0504488643360248-0.0049692343919699i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0366897965398644-0.0077325637784372i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036740730437698+0.0034595206959958i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0705656712415827+0.0096254277558264i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0755496561750473-0.0148887258879393i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0751201751009177-0.007338217960379i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0734937121248601+0.0070593241233824i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0737160797181852+0.0023991461193731i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0769225808222151-0.0087698041672955i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0738343412416753-0.0064832071803746i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0645981983371523-0.0434521367194698i</t>
@@ -1742,16 +1742,16 @@
     <t xml:space="preserve">23</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0443220977335014-0.0133076025170838i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0400223642247876-0.0095359221249079i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0411453766100617-0.0038576106263179i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0360768943572337+0i</t>
+    <t xml:space="preserve">0.0443220977335012-0.0133076025170837i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0400223642247877-0.0095359221249078i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0411453766100616-0.0038576106263179i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0360768943572335+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0385615151052497+0.0054269125125004i</t>
@@ -1760,73 +1760,73 @@
     <t xml:space="preserve">-0.0408354823020596+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0393261040782195+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0472493263155029-0.0171111568421963i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0459177290945342+0.0060431005176759i</t>
+    <t xml:space="preserve">-0.0393261040782196+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.047249326315503-0.0171111568421963i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0459177290945341+0.0060431005176759i</t>
   </si>
   <si>
     <t xml:space="preserve">0.045977179164966+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0440940661372095+0i</t>
+    <t xml:space="preserve">-0.0440940661372096+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0472261162593197+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0484392332231138+0i</t>
+    <t xml:space="preserve">-0.0484392332231136+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0199700001046524+0.0258251880052556i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0367407304376981-0.0034595206959958i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0705656712415828-0.0096254277558264i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0670233319462072+0i</t>
+    <t xml:space="preserve">0.036740730437698-0.0034595206959958i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0705656712415827-0.0096254277558264i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0670233319462073+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0699194169994966+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0734937121248603-0.0070593241233825i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0737160797181853-0.002399146119373i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0745004249814363+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0692875892616954+0.0138525420580042i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0641473576537394+0.0111468341794055i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0143355388788079+0.0584931055141533i</t>
+    <t xml:space="preserve">0.0734937121248601-0.0070593241233824i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0737160797181852-0.0023991461193731i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0745004249814364+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0692875892616956+0.0138525420580041i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0641473576537396+0.0111468341794056i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014335538878808+0.0584931055141533i</t>
   </si>
   <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0158731872117318+0.0275125472274735i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0142366107812266+0.0228969678271951i</t>
+    <t xml:space="preserve">-0.0158731872117317+0.0275125472274735i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0142366107812265+0.0228969678271951i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0228297818510295+0.0200843342408397i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0277286639085899+0.0225719853739692i</t>
+    <t xml:space="preserve">0.02772866390859+0.0225719853739693i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0385615151052497-0.0054269125125004i</t>
@@ -1835,139 +1835,139 @@
     <t xml:space="preserve">0.0321326618656028+0.0157026838999629i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0363845420052132+0.0113873843319404i</t>
+    <t xml:space="preserve">0.0363845420052133+0.0113873843319404i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0394974679386169+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0459177290945342-0.0060431005176759i</t>
+    <t xml:space="preserve">0.0459177290945341-0.0060431005176759i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0379310695937008+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0374420067626909+0.0102631981457489i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0336175268660603+0.0121242997860116i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0020981295942629+0.0344480025971888i</t>
+    <t xml:space="preserve">0.037442006762691+0.0102631981457489i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0336175268660602+0.0121242997860115i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0020981295942628+0.0344480025971889i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0199700001046524-0.0258251880052556i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0045092560888824+0.0363465741944276i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0568533066135366+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0340756732163617+0.0432724019630926i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0531915031476821+0i</t>
+    <t xml:space="preserve">-0.0045092560888824+0.0363465741944275i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0568533066135368+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0340756732163619+0.0432724019630926i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0531915031476823+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0105648469491091+0.0547791414224604i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0151362147020392+0.0542501740788467i</t>
+    <t xml:space="preserve">0.0151362147020392+0.0542501740788465i</t>
   </si>
   <si>
     <t xml:space="preserve">0.05934683604387+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0692875892616954-0.0138525420580042i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0641473576537394-0.0111468341794055i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0143355388788079-0.0584931055141533i</t>
+    <t xml:space="preserve">0.0692875892616956-0.0138525420580041i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0641473576537396-0.0111468341794056i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014335538878808-0.0584931055141533i</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0158731872117318-0.0275125472274735i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0142366107812266-0.0228969678271951i</t>
+    <t xml:space="preserve">-0.0158731872117317-0.0275125472274735i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0142366107812265-0.0228969678271951i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0228297818510295-0.0200843342408397i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0277286639085899-0.0225719853739692i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0027818723530997+0.0309091687885634i</t>
+    <t xml:space="preserve">0.02772866390859-0.0225719853739693i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0027818723530998+0.0309091687885633i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0321326618656028-0.0157026838999629i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0363845420052132-0.0113873843319404i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0154708585525933+0.0334026125959469i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0193033675471651+0.0316657637560311i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0319827759901366+0.0026659461400196i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0374420067626909-0.0102631981457489i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0336175268660603-0.0121242997860116i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0020981295942629-0.0344480025971888i</t>
+    <t xml:space="preserve">0.0363845420052133-0.0113873843319404i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0154708585525934+0.033402612595947i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0193033675471652+0.0316657637560311i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0319827759901367+0.0026659461400195i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.037442006762691-0.0102631981457489i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0336175268660602-0.0121242997860115i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0020981295942628-0.0344480025971889i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0282168937007429+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0045092560888824-0.0363465741944276i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0377106629371521+0.0388365993892332i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0340756732163617-0.0432724019630926i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010830112818259+0.0493470049100164i</t>
+    <t xml:space="preserve">-0.0045092560888824-0.0363465741944275i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0377106629371522+0.0388365993892333i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0340756732163619-0.0432724019630926i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0108301128182591+0.0493470049100164i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0105648469491091-0.0547791414224604i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0151362147020392-0.0542501740788467i</t>
+    <t xml:space="preserve">0.0151362147020392-0.0542501740788465i</t>
   </si>
   <si>
     <t xml:space="preserve">0.027765014447371+0.0443516894046577i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0287544355872551+0.0407464902341871i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019020179512808+0.0554004674698252i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0523731544323542+0.0074398397937384i</t>
+    <t xml:space="preserve">0.0287544355872551+0.0407464902341873i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019020179512808+0.0554004674698254i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0523731544323541+0.0074398397937385i</t>
   </si>
   <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0284334486755854+0.0039501063131651i</t>
+    <t xml:space="preserve">0.0284334486755853+0.0039501063131652i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0192886598427129+0.0088736937504356i</t>
@@ -1976,31 +1976,31 @@
     <t xml:space="preserve">-0.0000012499700295+0.02445735129826i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0014883691353344+0.0282817554396585i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0027818723530997-0.0309091687885634i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0141419480960316+0.025921948571886i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0151791718790457+0.0304723648931226i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0154708585525933-0.0334026125959469i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0193033675471651-0.0316657637560311i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0319827759901366-0.0026659461400196i</t>
+    <t xml:space="preserve">0.0014883691353344+0.0282817554396584i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0027818723530998-0.0309091687885633i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0141419480960315+0.0259219485718861i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0151791718790458+0.0304723648931226i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0154708585525934-0.033402612595947i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0193033675471652-0.0316657637560311i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0319827759901367-0.0026659461400195i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0019180514588672+0.0338050154095781i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0022354131414518+0.0354530648584518i</t>
+    <t xml:space="preserve">-0.0022354131414519+0.0354530648584519i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0329340125901469+0.0092807750355161i</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">0.0223880732340132+0.0268300241989624i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0377106629371521-0.0388365993892332i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0487997220774022+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010830112818259-0.0493470049100164i</t>
+    <t xml:space="preserve">0.0377106629371522-0.0388365993892333i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.048799722077402+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0108301128182591-0.0493470049100164i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0557836511225997+0i</t>
@@ -2030,19 +2030,19 @@
     <t xml:space="preserve">0.027765014447371-0.0443516894046577i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0287544355872551-0.0407464902341871i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019020179512808-0.0554004674698252i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0523731544323542-0.0074398397937384i</t>
+    <t xml:space="preserve">0.0287544355872551-0.0407464902341873i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019020179512808-0.0554004674698254i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0523731544323541-0.0074398397937385i</t>
   </si>
   <si>
     <t xml:space="preserve">27</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0284334486755854-0.0039501063131651i</t>
+    <t xml:space="preserve">0.0284334486755853-0.0039501063131652i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0192886598427129-0.0088736937504356i</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">-0.0000012499700295-0.02445735129826i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0014883691353344-0.0282817554396585i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0235171147071477+0.0079987435348456i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0141419480960316-0.025921948571886i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0151791718790457-0.0304723648931226i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0296316227450273+0.0070898928705496i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0350596702103644+0i</t>
+    <t xml:space="preserve">0.0014883691353344-0.0282817554396584i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235171147071479+0.0079987435348456i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0141419480960315-0.0259219485718861i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0151791718790458-0.0304723648931226i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0296316227450272+0.0070898928705495i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0350596702103647+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0199590720232903+0.0216354502152815i</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">-0.0019180514588672-0.0338050154095781i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0022354131414518-0.0354530648584518i</t>
+    <t xml:space="preserve">-0.0022354131414519-0.0354530648584519i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0329340125901469-0.0092807750355161i</t>
@@ -2087,37 +2087,37 @@
     <t xml:space="preserve">0.0223880732340132-0.0268300241989624i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0440449974762223+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0141678100024949+0.0432063291489011i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0309878259609788+0.0336577154910657i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0335433688034149+0.0326497974389131i</t>
+    <t xml:space="preserve">0.0440449974762224+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0141678100024948+0.043206329148901i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0309878259609787+0.0336577154910656i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0335433688034148+0.032649797438913i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0441035187132498+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0438521426709657+0i</t>
+    <t xml:space="preserve">0.0438521426709658+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0466356535430176+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0546437359334328+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0458961522236106+0i</t>
+    <t xml:space="preserve">0.0546437359334329+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0458961522236105+0i</t>
   </si>
   <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0221846140084735+0i</t>
+    <t xml:space="preserve">0.0221846140084734+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.021155174259582+0i</t>
@@ -2126,85 +2126,85 @@
     <t xml:space="preserve">-0.0225830398165871+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0248907006761559+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0235171147071477-0.0079987435348456i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0272193361508157+0i</t>
+    <t xml:space="preserve">-0.0248907006761558+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235171147071479-0.0079987435348456i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.027219336150816+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.027346557900527+0.0059387115532651i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0296316227450273-0.0070898928705496i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0055861731480911+0.0283834105865906i</t>
+    <t xml:space="preserve">-0.0296316227450272-0.0070898928705495i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0055861731480911+0.0283834105865905i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0199590720232903-0.0216354502152815i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0199164605707409+0.0256095287237664i</t>
+    <t xml:space="preserve">0.0199164605707409+0.0256095287237665i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0178234474183492+0.0224011432345672i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0299473821520604+0i</t>
+    <t xml:space="preserve">-0.0299473821520602+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0227810531557342+0.0103290547801973i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.028660804652434+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0428256230882027+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0141678100024949-0.0432063291489011i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0309878259609788-0.0336577154910657i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0335433688034149-0.0326497974389131i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0242413587382192+0.0355750123158462i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0068978592286745+0.0408410827507827i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0074021251881009+0.0408475603570331i</t>
+    <t xml:space="preserve">0.0286608046524338+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0428256230882026+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0141678100024948-0.043206329148901i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0309878259609787-0.0336577154910656i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0335433688034148-0.032649797438913i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0242413587382193+0.0355750123158462i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0068978592286744+0.0408410827507828i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0074021251881009+0.0408475603570333i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0465909240420948+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0409126327571679+0i</t>
+    <t xml:space="preserve">-0.0409126327571682+0i</t>
   </si>
   <si>
     <t xml:space="preserve">29</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0137257035956221+0.0114106681571536i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0140285095137753+0.0012844923163207i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0124671180241733+0.0185899343206028i</t>
+    <t xml:space="preserve">0.013725703595622+0.0114106681571535i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0140285095137753+0.0012844923163204i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0124671180241734+0.0185899343206028i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0116084296283486+0.0176799912704489i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.021407548666022+0i</t>
+    <t xml:space="preserve">-0.0214075486660219+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0079003327099526+0.0241091674585694i</t>
@@ -2213,22 +2213,22 @@
     <t xml:space="preserve">-0.027346557900527-0.0059387115532651i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0300770014309419+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0055861731480911-0.0283834105865906i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0059198849016356+0.0281382931467483i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0199164605707409-0.0256095287237664i</t>
+    <t xml:space="preserve">-0.030077001430942+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0055861731480911-0.0283834105865905i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0059198849016356+0.0281382931467485i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0199164605707409-0.0256095287237665i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0178234474183492-0.0224011432345672i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0171781219749106+0.0204145978779697i</t>
+    <t xml:space="preserve">0.0171781219749106+0.0204145978779698i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0227810531557342-0.0103290547801973i</t>
@@ -2237,28 +2237,28 @@
     <t xml:space="preserve">-0.0254696447342226+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0080535901932682+0.0387318184225952i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0145531156318462+0.0381317661145302i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0412241889234138+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0406008706520528+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0242413587382192-0.0355750123158462i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0068978592286745-0.0408410827507827i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0074021251881009-0.0408475603570331i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0406137738096341+0i</t>
+    <t xml:space="preserve">-0.0080535901932682+0.0387318184225951i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0145531156318461+0.0381317661145302i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0412241889234139+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0406008706520529+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0242413587382193-0.0355750123158462i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0068978592286744-0.0408410827507828i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0074021251881009-0.0408475603570333i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0406137738096343+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0072014123035846+0.0383763888220416i</t>
@@ -2267,19 +2267,19 @@
     <t xml:space="preserve">30</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0137257035956221-0.0114106681571536i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0140285095137753-0.0012844923163207i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0124671180241733-0.0185899343206028i</t>
+    <t xml:space="preserve">0.013725703595622-0.0114106681571535i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0140285095137753-0.0012844923163204i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0124671180241734-0.0185899343206028i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0116084296283486-0.0176799912704489i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0192320890423053+0.001157733566973i</t>
+    <t xml:space="preserve">0.0192320890423054+0.001157733566973i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0079003327099526-0.0241091674585694i</t>
@@ -2288,22 +2288,22 @@
     <t xml:space="preserve">-0.0080584092145581+0.0266769623571359i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0058916811513932+0.0254458128285122i</t>
+    <t xml:space="preserve">-0.0058916811513932+0.0254458128285121i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0267637329843012+0.0041619702212895i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0059198849016356-0.0281382931467483i</t>
+    <t xml:space="preserve">-0.0059198849016356-0.0281382931467485i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0252350171490524+0.0016681042987849i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0257212695261836+0.0018755979660217i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0171781219749106-0.0204145978779697i</t>
+    <t xml:space="preserve">-0.0257212695261836+0.0018755979660218i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0171781219749106-0.0204145978779698i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0194661604273748+0.008416917867689i</t>
@@ -2312,13 +2312,13 @@
     <t xml:space="preserve">0.0203596601679679+0.0039024735877429i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0080535901932682-0.0387318184225952i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0145531156318462-0.0381317661145302i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.013995455827338+0.0378066556412481i</t>
+    <t xml:space="preserve">-0.0080535901932682-0.0387318184225951i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0145531156318461-0.0381317661145302i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0139954558273378+0.0378066556412481i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0391124100423404+0i</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">0.04286400722146+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.037650364960399+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0365829982556775+0.017805914683139i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0057686681258072+0.0395347674821798i</t>
+    <t xml:space="preserve">-0.0376503649603989+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0365829982556774+0.017805914683139i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0057686681258072+0.0395347674821796i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0072014123035846-0.0383763888220416i</t>
@@ -2348,22 +2348,22 @@
     <t xml:space="preserve">0.013617971690013+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.017918086398095+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0179725891515148+0.0061729568484056i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0192320890423053-0.001157733566973i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0247758909399953+0i</t>
+    <t xml:space="preserve">0.0179180863980949+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0179725891515148+0.0061729568484057i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0192320890423054-0.001157733566973i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0247758909399952+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0080584092145581-0.0266769623571359i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0058916811513932-0.0254458128285122i</t>
+    <t xml:space="preserve">-0.0058916811513932-0.0254458128285121i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0267637329843012-0.0041619702212895i</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">-0.0252350171490524-0.0016681042987849i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0257212695261836-0.0018755979660217i</t>
+    <t xml:space="preserve">-0.0257212695261836-0.0018755979660218i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0218392447626604+0i</t>
@@ -2387,31 +2387,31 @@
     <t xml:space="preserve">0.0203596601679679-0.0039024735877429i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0019796235909452+0.0361504338772942i</t>
+    <t xml:space="preserve">0.0019796235909452+0.0361504338772943i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0396369174594735+0.0015951575104594i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.013995455827338-0.0378066556412481i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0112841181519445+0.037439505167774i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0071441844850199+0.0392815405764782i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0357174242820662+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0365829982556775-0.017805914683139i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0057686681258072-0.0395347674821798i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0251469674825856+0.0289379982665902i</t>
+    <t xml:space="preserve">-0.0139954558273378-0.0378066556412481i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0112841181519445+0.0374395051677739i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00714418448502+0.0392815405764782i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0357174242820663+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0365829982556774-0.017805914683139i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0057686681258072-0.0395347674821796i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0251469674825855+0.0289379982665903i</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
@@ -2420,22 +2420,22 @@
     <t xml:space="preserve">-0.0018825966197556-0.0123316314214824i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0004188088056331+0.0111311065853383i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0096265661035836+0.0123980701951214i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0179725891515148-0.0061729568484056i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005325728485403+0.0170409575004989i</t>
+    <t xml:space="preserve">-0.000418808805633+0.0111311065853383i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0096265661035834+0.0123980701951214i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0179725891515148-0.0061729568484057i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0053257284854031+0.017040957500499i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0193893051960645+0.0108366786364807i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0234232908078505+0i</t>
+    <t xml:space="preserve">0.0234232908078506+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.023284804637333+0i</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">0.026890379031915+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0230771982674637+0i</t>
+    <t xml:space="preserve">-0.0230771982674636+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0216989579525491+0i</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">0.017607754416278+0.0051786195129836i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0200114115755813+0.0016299709747782i</t>
+    <t xml:space="preserve">0.0200114115755813+0.0016299709747781i</t>
   </si>
   <si>
     <t xml:space="preserve">0.01033543527991+0.0143469571701549i</t>
@@ -2462,49 +2462,49 @@
     <t xml:space="preserve">0.016723146669838+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0019796235909452-0.0361504338772942i</t>
+    <t xml:space="preserve">0.0019796235909452-0.0361504338772943i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0396369174594735-0.0015951575104594i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0387789387294292+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0112841181519445-0.037439505167774i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0071441844850199-0.0392815405764782i</t>
+    <t xml:space="preserve">0.0387789387294291+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0112841181519445-0.0374395051677739i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00714418448502-0.0392815405764782i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0066595380986696+0.0338151003462672i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0383323224917039+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0338386608969921+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0251469674825856-0.0289379982665902i</t>
+    <t xml:space="preserve">-0.0383323224917038+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0338386608969919+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0251469674825855-0.0289379982665903i</t>
   </si>
   <si>
     <t xml:space="preserve">33</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00762481965358621+0.00737619259518245i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0004188088056331-0.0111311065853383i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0096265661035836-0.0123980701951214i</t>
+    <t xml:space="preserve">-0.00762481965358622+0.00737619259518244i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000418808805633-0.0111311065853383i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0096265661035834-0.0123980701951214i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0163034225438166+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.005325728485403-0.0170409575004989i</t>
+    <t xml:space="preserve">0.0053257284854031-0.017040957500499i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0193893051960645-0.0108366786364807i</t>
@@ -2519,67 +2519,67 @@
     <t xml:space="preserve">0.0180910025618604+0.0138492065885961i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0109686974032374+0.0170145817373762i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0072731614064647+0.0146423800860656i</t>
+    <t xml:space="preserve">0.0109686974032375+0.0170145817373762i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0072731614064648+0.0146423800860655i</t>
   </si>
   <si>
     <t xml:space="preserve">0.017607754416278-0.0051786195129836i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0200114115755813-0.0016299709747782i</t>
+    <t xml:space="preserve">0.0200114115755813-0.0016299709747781i</t>
   </si>
   <si>
     <t xml:space="preserve">0.01033543527991-0.0143469571701549i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.008309035554515+0.0144141917172331i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0325863644173564+0i</t>
+    <t xml:space="preserve">0.0083090355545151+0.014414191717233i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0325863644173563+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0310567963715308+0.007245050145345i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0297312616902032+0.0062952010585389i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0281800367139545+0.0079006940145492i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0340566546784319+0i</t>
+    <t xml:space="preserve">-0.0297312616902032+0.006295201058539i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0281800367139544+0.0079006940145492i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0340566546784318+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0066595380986696-0.0338151003462672i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0359467763005214+0i</t>
+    <t xml:space="preserve">0.0359467763005215+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0305195122221622+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0176724207554367+0.0323279415878166i</t>
+    <t xml:space="preserve">0.0176724207554368+0.0323279415878166i</t>
   </si>
   <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00762481965358621-0.00737619259518245i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00924615203803126+0.00035077124460359i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00991256940245613+0.00880203286967734i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0118234463522966+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00689983209473269+0.00998266010194312i</t>
+    <t xml:space="preserve">-0.00762481965358622-0.00737619259518244i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00924615203803127+0.00035077124460369i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00991256940245623+0.00880203286967735i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0118234463522965+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00689983209473272+0.00998266010194303i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0112090508366308+0.0162744107425271i</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">0.0180910025618604-0.0138492065885961i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0109686974032374-0.0170145817373762i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0072731614064647-0.0146423800860656i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0103414044217739+0.0128450509382084i</t>
+    <t xml:space="preserve">0.0109686974032375-0.0170145817373762i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0072731614064648-0.0146423800860655i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0103414044217739+0.0128450509382083i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0146094339631639+0i</t>
@@ -2609,34 +2609,34 @@
     <t xml:space="preserve">0.0158337080419684+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.008309035554515-0.0144141917172331i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0304447402812145+0i</t>
+    <t xml:space="preserve">0.0083090355545151-0.014414191717233i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0304447402812144+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0310567963715308-0.007245050145345i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0297312616902032-0.0062952010585389i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0281800367139545-0.0079006940145492i</t>
+    <t xml:space="preserve">-0.0297312616902032-0.006295201058539i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0281800367139544-0.0079006940145492i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0288581229378211+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0282160408702731+0.0187727380273766i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0011526182116297+0.0303346058578447i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0073753855523778+0.0284295186089861i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0176724207554367-0.0323279415878166i</t>
+    <t xml:space="preserve">0.0282160408702732+0.0187727380273766i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0011526182116297+0.0303346058578446i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0073753855523777+0.0284295186089861i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0176724207554368-0.0323279415878166i</t>
   </si>
   <si>
     <t xml:space="preserve">35</t>
@@ -2645,46 +2645,46 @@
     <t xml:space="preserve">0.0101758112180344+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00924615203803126-0.00035077124460359i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00991256940245613-0.00880203286967734i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00422198448072885+0.00960250531113466i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00689983209473269-0.00998266010194312i</t>
+    <t xml:space="preserve">0.00924615203803127-0.00035077124460369i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00991256940245623-0.00880203286967735i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00422198448072884+0.00960250531113468i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00689983209473272-0.00998266010194303i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0112090508366308-0.0162744107425271i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0186700474611664+0.0110667088394665i</t>
+    <t xml:space="preserve">0.0186700474611663+0.0110667088394665i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0118789956635782+0.0167776931304926i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0124958151502092+0.0189234247403203i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01215069190996+0.0052776663513442i</t>
+    <t xml:space="preserve">0.0124958151502091+0.0189234247403203i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01215069190996+0.0052776663513443i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0161956790060271+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0103414044217739-0.0128450509382084i</t>
+    <t xml:space="preserve">0.0103414044217739-0.0128450509382083i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0080944356951089+0.0119139248251845i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0100828131321365+0.0118664713935409i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0136776638694245+0.0047931403544557i</t>
+    <t xml:space="preserve">-0.0100828131321366+0.0118664713935409i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0136776638694246+0.0047931403544557i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0256066310779244+0i</t>
@@ -2693,40 +2693,40 @@
     <t xml:space="preserve">0.0254209405140099+0.0030194544293224i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0294193023188022+0.0041778777995419i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0270445784991363+0.0003588711846792i</t>
+    <t xml:space="preserve">0.0294193023188021+0.0041778777995418i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0270445784991363+0.0003588711846788i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0202526172581946+0.0122994974664754i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0282160408702731-0.0187727380273766i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0011526182116297-0.0303346058578447i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0073753855523778-0.0284295186089861i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0307266339940759+0.0007178903176623i</t>
+    <t xml:space="preserve">0.0282160408702732-0.0187727380273766i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0011526182116297-0.0303346058578446i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0073753855523777-0.0284295186089861i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0307266339940761+0.0007178903176628i</t>
   </si>
   <si>
     <t xml:space="preserve">36</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0101486864529813+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0079398907382509+0i</t>
+    <t xml:space="preserve">-0.0101486864529812+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00793989073825093+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0128886019824494+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00422198448072885-0.00960250531113466i</t>
+    <t xml:space="preserve">0.00422198448072884-0.00960250531113468i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0113228428646159+0i</t>
@@ -2735,16 +2735,16 @@
     <t xml:space="preserve">0.0163067835227091+0.0027800279585124i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0186700474611664-0.0110667088394665i</t>
+    <t xml:space="preserve">0.0186700474611663-0.0110667088394665i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0118789956635782-0.0167776931304926i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0124958151502092-0.0189234247403203i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01215069190996-0.0052776663513442i</t>
+    <t xml:space="preserve">0.0124958151502091-0.0189234247403203i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01215069190996-0.0052776663513443i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0003440155885948+0.0128860437346083i</t>
@@ -2756,22 +2756,22 @@
     <t xml:space="preserve">0.0080944356951089-0.0119139248251845i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0100828131321365-0.0118664713935409i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0136776638694245-0.0047931403544557i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0171428764221597+0.0151850644321841i</t>
+    <t xml:space="preserve">-0.0100828131321366-0.0118664713935409i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0136776638694246-0.0047931403544557i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0171428764221598+0.0151850644321842i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0254209405140099-0.0030194544293224i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0294193023188022-0.0041778777995419i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0270445784991363-0.0003588711846792i</t>
+    <t xml:space="preserve">0.0294193023188021-0.0041778777995418i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0270445784991363-0.0003588711846788i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0202526172581946-0.0122994974664754i</t>
@@ -2783,43 +2783,43 @@
     <t xml:space="preserve">0.022355674406962+0.0049883934152719i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0184313532286227+0.0155911131372906i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0307266339940759-0.0007178903176623i</t>
+    <t xml:space="preserve">0.0184313532286228+0.0155911131372906i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0307266339940761-0.0007178903176628i</t>
   </si>
   <si>
     <t xml:space="preserve">37</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00505561495667382+0.00258180986328682i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00536120654168053+0.0036591661272747i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00751074192294268+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00825651540266061+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00367295063737918+0.00393485152495054i</t>
+    <t xml:space="preserve">0.00505561495667382+0.00258180986328679i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00536120654168051+0.00365916612727469i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0075107419229427+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0082565154026606+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00367295063737916+0.00393485152495053i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0163067835227091-0.0027800279585124i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00957677286627154+0.00165527353401416i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00976167401558339+0.00180945062952673i</t>
+    <t xml:space="preserve">0.00957677286627151+0.00165527353401411i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00976167401558341+0.00180945062952674i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0104891796474651+0.001643660953419i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0072559779785222+0.0108787562442197i</t>
+    <t xml:space="preserve">0.0072559779785222+0.0108787562442198i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0003440155885948-0.0128860437346083i</t>
@@ -2834,13 +2834,13 @@
     <t xml:space="preserve">0.0118375833374586+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.012085562348527+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0171428764221597-0.0151850644321841i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0219838652037315+0i</t>
+    <t xml:space="preserve">0.0120855623485269+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0171428764221598-0.0151850644321842i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0219838652037316+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0200847290170212+0i</t>
@@ -2858,43 +2858,43 @@
     <t xml:space="preserve">0.022355674406962-0.0049883934152719i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0184313532286227-0.0155911131372906i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0228588105961677+0i</t>
+    <t xml:space="preserve">0.0184313532286228-0.0155911131372906i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0228588105961675+0i</t>
   </si>
   <si>
     <t xml:space="preserve">38</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00505561495667382-0.00258180986328682i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00536120654168053-0.0036591661272747i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0010138160696473+0.00415124909504586i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00177021405474749+0.00355353040271325i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00367295063737918-0.00393485152495054i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00845861625869405+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00957677286627154-0.00165527353401416i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00976167401558339-0.00180945062952673i</t>
+    <t xml:space="preserve">0.00505561495667382-0.00258180986328679i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00536120654168051-0.00365916612727469i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0010138160696473+0.00415124909504584i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00177021405474748+0.00355353040271323i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00367295063737916-0.00393485152495053i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00845861625869407+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00957677286627151-0.00165527353401411i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00976167401558341-0.00180945062952674i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0104891796474651-0.001643660953419i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0072559779785222-0.0108787562442197i</t>
+    <t xml:space="preserve">0.0072559779785222-0.0108787562442198i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0112494230931459+0i</t>
@@ -2906,10 +2906,10 @@
     <t xml:space="preserve">-0.0010347172891701-0.0108051914184108i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00912614708078265+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00325399743485226+0.00891347086503178i</t>
+    <t xml:space="preserve">0.00912614708078266+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00325399743485228+0.0089134708650318i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0213248037058651+0i</t>
@@ -2918,13 +2918,13 @@
     <t xml:space="preserve">0.0138655923673765+0.0144393418295257i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0130841845734407+0.0093810930323976i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0148129914036391+0.0085097631548519i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0187721808781225+0.0002020691184524i</t>
+    <t xml:space="preserve">0.0130841845734406+0.0093810930323976i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0148129914036391+0.008509763154852i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0187721808781225+0.0002020691184525i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0163461327781497+0i</t>
@@ -2936,34 +2936,34 @@
     <t xml:space="preserve">0.0161445042268638+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0212964801609539+0i</t>
+    <t xml:space="preserve">-0.021296480160954+0i</t>
   </si>
   <si>
     <t xml:space="preserve">39</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00147044533611937+0.00509377858063346i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00339853606905158+0.00155678720980751i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0010138160696473-0.00415124909504586i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00177021405474749-0.00355353040271325i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.004164384563413+0i</t>
+    <t xml:space="preserve">0.00147044533611936+0.00509377858063347i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0033985360690516+0.00155678720980752i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0010138160696473-0.00415124909504584i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00177021405474748-0.00355353040271323i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00416438456341299+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.00362215950177375+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00865828255143324+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00900011282997622+0i</t>
+    <t xml:space="preserve">0.0086582825514332+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00900011282997623+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0102279490419539+0i</t>
@@ -2984,31 +2984,31 @@
     <t xml:space="preserve">0.00203149763048306+0.00130022977341444i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00325399743485226-0.00891347086503178i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0188394282320061+0i</t>
+    <t xml:space="preserve">-0.00325399743485228-0.0089134708650318i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.018839428232006+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0138655923673765-0.0144393418295257i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0130841845734407-0.0093810930323976i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0148129914036391-0.0085097631548519i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0187721808781225-0.0002020691184524i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0103904637331596+0.0075674223669918i</t>
+    <t xml:space="preserve">0.0130841845734406-0.0093810930323976i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0148129914036391-0.008509763154852i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0187721808781225-0.0002020691184525i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0103904637331596+0.0075674223669919i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.011946745421695+0.0100847083102838i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0125312725953256+0.009930948580852i</t>
+    <t xml:space="preserve">-0.0125312725953257+0.0099309485808521i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0134032562601439+0i</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00147044533611937-0.00509377858063346i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00339853606905158-0.00155678720980751i</t>
+    <t xml:space="preserve">0.00147044533611936-0.00509377858063347i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0033985360690516-0.00155678720980752i</t>
   </si>
   <si>
     <t xml:space="preserve">0.00328722418572732+0i</t>
@@ -3029,61 +3029,61 @@
     <t xml:space="preserve">0.0019601288754074+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00210518107108007+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00237145964053222+0.00123130070948424i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00236141720230864+0.00110754713776144i</t>
+    <t xml:space="preserve">0.00210518107108008+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00237145964053221+0.00123130070948424i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00236141720230863+0.00110754713776143i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.00270943749570448+0.00142235197389023i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00247638033687989+0.00208162135874386i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.002273359028412+0.00199133956286695i</t>
+    <t xml:space="preserve">-0.00247638033687989+0.00208162135874385i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002273359028412+0.00199133956286694i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.00206156797087971+0.00211113023553i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00160394696892096+0.00222529340603871i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0015795347225957+0.00264209703302764i</t>
+    <t xml:space="preserve">-0.00160394696892096+0.00222529340603872i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00157953472259571+0.00264209703302764i</t>
   </si>
   <si>
     <t xml:space="preserve">0.00203149763048306-0.00130022977341444i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00903021694526271+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00809161371390873+0.00678927547544172i</t>
+    <t xml:space="preserve">0.00903021694526273+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00809161371390869+0.00678927547544173i</t>
   </si>
   <si>
     <t xml:space="preserve">0.01036204847215+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00564097775079445+0.00834064526839672i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0099941137165161+0i</t>
+    <t xml:space="preserve">-0.00564097775079444+0.00834064526839674i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00999411371651608+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0109639240085398+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0103904637331596-0.0075674223669918i</t>
+    <t xml:space="preserve">-0.0103904637331596-0.0075674223669919i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.011946745421695-0.0100847083102838i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0125312725953256-0.009930948580852i</t>
+    <t xml:space="preserve">-0.0125312725953257-0.0099309485808521i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0118225327242598+0i</t>
@@ -3092,10 +3092,10 @@
     <t xml:space="preserve">41</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00197714981344686+0.0000470248230182i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00313704340069346+0i</t>
+    <t xml:space="preserve">0.00197714981344686+0.00004702482301828i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00313704340069345+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.00113249991505632+0i</t>
@@ -3104,220 +3104,220 @@
     <t xml:space="preserve">-0.00118236348058799+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000886741088495103+0.000434965299976645i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00237145964053222-0.00123130070948424i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00236141720230864-0.00110754713776144i</t>
+    <t xml:space="preserve">-0.000886741088495106+0.000434965299976647i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00237145964053221-0.00123130070948424i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00236141720230863-0.00110754713776143i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.00270943749570448-0.00142235197389023i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00247638033687989-0.00208162135874386i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.002273359028412-0.00199133956286695i</t>
+    <t xml:space="preserve">-0.00247638033687989-0.00208162135874385i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002273359028412-0.00199133956286694i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.00206156797087971-0.00211113023553i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00160394696892096-0.00222529340603871i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0015795347225957-0.00264209703302764i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00177993461021996+0i</t>
+    <t xml:space="preserve">-0.00160394696892096-0.00222529340603872i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00157953472259571-0.00264209703302764i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00177993461021995+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.00390613141823529+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00809161371390873-0.00678927547544172i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00552746280156094+0.00637705136411807i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00564097775079445-0.00834064526839672i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00523484745735917+0.00824946837269567i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00574770685769624+0.00805214531377528i</t>
+    <t xml:space="preserve">-0.00809161371390869-0.00678927547544173i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00552746280156096+0.00637705136411809i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00564097775079444-0.00834064526839674i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00523484745735915+0.00824946837269567i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00574770685769621+0.00805214531377527i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0117449920799499+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00977105954213789+0i</t>
+    <t xml:space="preserve">0.0097710595421379+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0128701598417768+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0074310044726238+0i</t>
+    <t xml:space="preserve">-0.00743100447262378+0i</t>
   </si>
   <si>
     <t xml:space="preserve">42</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00197714981344686-0.0000470248230182i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000909288047197005+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000988464121680811+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00100812582490518+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000886741088495103-0.000434965299976645i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000940461773400974+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000807616484733267+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000836819432693329+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000830412894993382+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000603574452600321+0i</t>
+    <t xml:space="preserve">0.00197714981344686-0.00004702482301828i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00090928804719701+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000988464121680815+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00100812582490519+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000886741088495106-0.000434965299976647i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000940461773400975+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000807616484733272+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000836819432693321+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000830412894993385+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000603574452600319+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.000614908286588824+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000461370072897122+0i</t>
+    <t xml:space="preserve">0.00046137007289712+0i</t>
   </si>
   <si>
     <t xml:space="preserve">0.000361593409417094+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00014169213261049+0.000797641555696958i</t>
+    <t xml:space="preserve">-0.000141692132610489+0.000797641555696962i</t>
   </si>
   <si>
     <t xml:space="preserve">0.000632329711536842+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00981339187513102+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00552746280156094-0.00637705136411807i</t>
+    <t xml:space="preserve">0.009813391875131+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00552746280156096-0.00637705136411809i</t>
   </si>
   <si>
     <t xml:space="preserve">0.0100411808665088+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00523484745735917-0.00824946837269567i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00574770685769624-0.00805214531377528i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00511221581993686+0.0042133533022278i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00356419879654722+0.00306130092972908i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00281688819754645+0.00372726078740627i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00304704236858565+0.00458418394855228i</t>
+    <t xml:space="preserve">-0.00523484745735915-0.00824946837269567i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00574770685769621-0.00805214531377527i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00511221581993683+0.00421335330222779i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00356419879654721+0.00306130092972909i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00281688819754643+0.00372726078740627i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00304704236858562+0.00458418394855234i</t>
   </si>
   <si>
     <t xml:space="preserve">43</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0000429722914601005+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000260911874192223+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000568172118185559+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000464774731260252+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000592019845571537+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000323160540416775+0.000214725731393071i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000454236244665481+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000638720601595379+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000069559226707437+0.000259087138605321i</t>
+    <t xml:space="preserve">-0.0000429722914601002+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000260911874192222+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000568172118185556+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00046477473126025+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00059201984557154+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000323160540416774+0.000214725731393072i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000454236244665483+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000638720601595378+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000069559226707438+0.000259087138605323i</t>
   </si>
   <si>
     <t xml:space="preserve">0.000078295615455148+0.000187328649264206i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000085140547243361+0.000314059139475569i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000453181039045945+0.0000797354459609945i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000248456063825311+0.000211733737540374i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00014169213261049-0.000797641555696958i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000175307183190664+0.000390629561023778i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00807160394057852+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00254386264829624+0.00303102197045016i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00245978409376898+0.00213885819730959i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.001334909476165+0.0022125858041439i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00337008765129322+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00511221581993686-0.0042133533022278i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00356419879654722-0.00306130092972908i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00281688819754645-0.00372726078740627i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00304704236858565-0.00458418394855228i</t>
+    <t xml:space="preserve">0.000085140547243362+0.000314059139475568i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000453181039045951+0.000079735445960996i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000248456063825314+0.000211733737540375i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000141692132610489-0.000797641555696962i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000175307183190664+0.000390629561023783i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0080716039405785+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00254386264829624+0.00303102197045017i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00245978409376898+0.0021388581973096i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00133490947616499+0.00221258580414391i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00337008765129324+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00511221581993683-0.00421335330222779i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00356419879654721-0.00306130092972909i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00281688819754643-0.00372726078740627i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00304704236858562-0.00458418394855234i</t>
   </si>
   <si>
     <t xml:space="preserve">44</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000179753962806831+0i</t>
+    <t xml:space="preserve">0.0000179753962806827+0i</t>
   </si>
   <si>
     <t xml:space="preserve">-0.000113273454166694+0i</t>
@@ -3332,67 +3332,136 @@
     <t xml:space="preserve">0.000149408060274817+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000323160540416775-0.000214725731393071i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000025451397542588+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000036836851537106+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000069559226707437-0.000259087138605321i</t>
+    <t xml:space="preserve">-0.000323160540416774-0.000214725731393072i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000254513975425887+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000368368515371054+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000069559226707438-0.000259087138605323i</t>
   </si>
   <si>
     <t xml:space="preserve">0.000078295615455148-0.000187328649264206i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000085140547243361-0.000314059139475569i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000453181039045945-0.0000797354459609945i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000248456063825311-0.000211733737540374i</t>
+    <t xml:space="preserve">0.000085140547243362-0.000314059139475568i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000453181039045951-0.000079735445960996i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000248456063825314-0.000211733737540375i</t>
   </si>
   <si>
     <t xml:space="preserve">0.000502317305966652+0i</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000175307183190664-0.000390629561023778i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0016233634090556+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00254386264829624-0.00303102197045016i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00245978409376898-0.00213885819730959i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.001334909476165-0.0022125858041439i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00159396643937166+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00108436477019205+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000468501548433466+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00211347898059948+0i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00190315730440667+0i</t>
+    <t xml:space="preserve">0.000175307183190664-0.000390629561023783i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00162336340905559+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00254386264829624-0.00303102197045017i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00245978409376898-0.0021388581973096i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00133490947616499-0.00221258580414391i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00159396643937159+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00108436477019203+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000468501548433481+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0021134789805995+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00190315730440666+0i</t>
   </si>
   <si>
     <t xml:space="preserve">45</t>
   </si>
   <si>
-    <t xml:space="preserve">0+0i</t>
+    <t xml:space="preserve">0.0000000000000131502814117238+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000121038998762364+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000117200318775638+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000120014881840247+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000172511946439198+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000158949660641198+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000185921987296349+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000204336010129755+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000187430884856493+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000154758035811531+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000115312323430033+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000903611736144699+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000739541040768726+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000632591093144103+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000563952176813125+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000043616506230674+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000376474840185295+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000412343927823143+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000000000040183558494816+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000404537290244417+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000536633270187398+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000511537733576599+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000446610006741523+0i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000501245595301348+0i</t>
   </si>
 </sst>
 </file>
@@ -7197,73 +7266,73 @@
         <v>1126</v>
       </c>
       <c r="C46" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D46" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="E46" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="F46" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="G46" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="H46" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="I46" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="J46" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="K46" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="L46" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
       <c r="M46" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
       <c r="N46" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
       <c r="O46" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="P46" t="s">
-        <v>1126</v>
+        <v>1140</v>
       </c>
       <c r="Q46" t="s">
-        <v>1126</v>
+        <v>1141</v>
       </c>
       <c r="R46" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="S46" t="s">
-        <v>1126</v>
+        <v>1143</v>
       </c>
       <c r="T46" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="U46" t="s">
-        <v>1126</v>
+        <v>1145</v>
       </c>
       <c r="V46" t="s">
-        <v>1126</v>
+        <v>1146</v>
       </c>
       <c r="W46" t="s">
-        <v>1126</v>
+        <v>1147</v>
       </c>
       <c r="X46" t="s">
-        <v>1126</v>
+        <v>1148</v>
       </c>
       <c r="Y46" t="s">
-        <v>1126</v>
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
